--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -545,7 +545,7 @@
   </si>
   <si>
     <t>If set to true, all systems that claim to support this extension and that render elements from the resource SHALL either render the content as required by the style extensions ([style](StructureDefinition-rendering-style.html), [xhtml](StructureDefinition-rendering-xhtml.html) and [markdown](StructureDefinition-rendering-markdown.html) or shall indicate to the user that the resource (or specific elements in the resource) cannot be appropriately rendered by the system. 
-For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/rendering.html#rendering-styleSensitive).</t>
+For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/rendering.html#rendering-styleSensitive).</t>
   </si>
   <si>
     <t>Questionnaire.extension:employeeTitle</t>
@@ -1192,7 +1192,7 @@
     <t>The minimum number of times the group must appear, or the minimum number of answers for a question - when greater than 1.</t>
   </si>
   <si>
-    <t>Default assumption for "required" elements is minOccurs=1.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/behavior.html#minOccurs).</t>
+    <t>Default assumption for "required" elements is minOccurs=1.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/behavior.html#minOccurs).</t>
   </si>
   <si>
     <t>N/A - MIF rather than RIM level</t>
@@ -1214,7 +1214,7 @@
     <t>The maximum number of times the group must appear, or the maximum number of answers for a question - when greater than 1 and not unlimited.</t>
   </si>
   <si>
-    <t>Only relevant if the element has repeats=true and there's a need to constrain the number of allowed repetitions.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/behavior.html#maxOccurs).</t>
+    <t>Only relevant if the element has repeats=true and there's a need to constrain the number of allowed repetitions.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/behavior.html#maxOccurs).</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:minValue</t>
@@ -1233,7 +1233,7 @@
     <t>The inclusive lower bound on the range of allowed values for the data element.</t>
   </si>
   <si>
-    <t>Data type specified must be the same as the data type for the data element.  For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/behavior.html#minValue).</t>
+    <t>Data type specified must be the same as the data type for the data element.  For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/behavior.html#minValue).</t>
   </si>
   <si>
     <t>N/A (MIF-level)</t>
@@ -1255,7 +1255,7 @@
     <t>The inclusive upper bound on the range of allowed values for the data element.</t>
   </si>
   <si>
-    <t>Data type specified must be the same as the data type for the data element.  For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/behavior.html#maxValue).</t>
+    <t>Data type specified must be the same as the data type for the data element.  For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/behavior.html#maxValue).</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:questionnaire-sliderStepValue</t>
@@ -1274,7 +1274,7 @@
     <t>For slider-based controls, indicates the step size to use when toggling the control up or down.</t>
   </si>
   <si>
-    <t>See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/rendering.html#sliderStepValue).</t>
+    <t>See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/rendering.html#sliderStepValue).</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:questionnaire-sliderStepValueDecimal</t>
@@ -1335,7 +1335,7 @@
     <t>The type of data entry control or structure that should be used to render the item.</t>
   </si>
   <si>
-    <t>Different controls may be appropriate for different item types.  It is up to the system rendering a questionnaire as to what controls it will support and for which data types.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/rendering.html#itemControl).</t>
+    <t>Different controls may be appropriate for different item types.  It is up to the system rendering a questionnaire as to what controls it will support and for which data types.  See additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/rendering.html#itemControl).</t>
   </si>
   <si>
     <t>Questionnaire.item.extension:itemControl.id</t>
@@ -1626,10 +1626,10 @@
     <t>String equivalent with html markup</t>
   </si>
   <si>
-    <t>This is an equivalent of the string on which the extension is sent, but includes additional XHTML markup, such as bold, italics, styles, tables, etc. Existing [restrictions on XHTML content](http://hl7.org/fhir/R4/narrative.html#security) apply. Note that using [markdown](http://hl7.org/fhir/extensions/5.1.0StructureDefinition-rendering-markdown.html) allows for greater flexibility of display.</t>
-  </si>
-  <si>
-    <t>For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/rendering.html#rendering-xhtml).</t>
+    <t>This is an equivalent of the string on which the extension is sent, but includes additional XHTML markup, such as bold, italics, styles, tables, etc. Existing [restrictions on XHTML content](http://hl7.org/fhir/R4/narrative.html#security) apply. Note that using [markdown](http://hl7.org/fhir/extensions/5.2.0StructureDefinition-rendering-markdown.html) allows for greater flexibility of display.</t>
+  </si>
+  <si>
+    <t>For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/rendering.html#rendering-xhtml).</t>
   </si>
   <si>
     <t>ED can be XHTML content</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2349,17 +2349,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.5234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="36.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.9921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2368,27 +2368,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.6953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.99609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="125.9375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="48.05859375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1149,7 +1149,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sliderStepValueDecimal-Type:Item must have type='decimal' when using extension 'ehealth-questionnaire-sliderStepValueDecimal' {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-sliderStepValueDecimal').exists() implies type = 'decimal'}copyright-type:If item extension 'ehealth-questionnaire-item-is-copyright' is set to true, item.type must be either 'group' or 'display'. {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').exists() and extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').value = true implies type = 'group' or type = 'display'}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sliderStepValueDecimal-Type:Item must have type='decimal' when using extension 'ehealth-questionnaire-sliderStepValueDecimal' {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-sliderStepValueDecimal').exists() implies type = 'decimal'}copyright-type:If item extension 'ehealth-questionnaire-item-is-copyright' is set to true, item.type must be either 'group' or 'display'. {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').exists() and extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').value = true implies type = 'group' or type = 'display'}questionnaire-minOccurs-greater-than-one:When the questionnaire-minOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').valueInteger &gt; 1}questionnaire-maxOccurs-greater-than-one:When the questionnaire-maxOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').valueInteger &gt; 1}minOccurs-invalid-when-repeats-false:minOccurs &gt; 1 is invalid if repeats is false {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() and extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').valueInteger &gt; 1 implies repeats = true}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1626,7 +1626,7 @@
     <t>String equivalent with html markup</t>
   </si>
   <si>
-    <t>This is an equivalent of the string on which the extension is sent, but includes additional XHTML markup, such as bold, italics, styles, tables, etc. Existing [restrictions on XHTML content](http://hl7.org/fhir/R4/narrative.html#security) apply. Note that using [markdown](http://hl7.org/fhir/extensions/5.2.0StructureDefinition-rendering-markdown.html) allows for greater flexibility of display.</t>
+    <t>This is an equivalent of the string on which the extension is sent, but includes additional XHTML markup, such as bold, italics, styles, tables, etc. Existing [restrictions on XHTML content](http://hl7.org/fhir/R4/narrative.html#security) apply. Note that using [markdown](http://hl7.org/fhir/extensions/5.2.0/StructureDefinition-rendering-markdown.html) allows for greater flexibility of display.</t>
   </si>
   <si>
     <t>For questionnaires, see additional guidance and examples in the [SDC implementation guide](http://hl7.org/fhir/uv/sdc/STU4-ballot/rendering.html#rendering-xhtml).</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-questionnaire.xlsx
+++ b/fhir/StructureDefinition-ehealth-questionnaire.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,7 +359,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -762,7 +762,7 @@
     <t>Questionnaire.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(Questionnaire)
+    <t xml:space="preserve">canonical(Questionnaire|4.0.1)
 </t>
   </si>
   <si>
@@ -1122,7 +1122,7 @@
     <t>Codes for questionnaires, groups and individual questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-questions|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1149,7 +1149,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sliderStepValueDecimal-Type:Item must have type='decimal' when using extension 'ehealth-questionnaire-sliderStepValueDecimal' {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-sliderStepValueDecimal').exists() implies type = 'decimal'}copyright-type:If item extension 'ehealth-questionnaire-item-is-copyright' is set to true, item.type must be either 'group' or 'display'. {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').exists() and extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').value = true implies type = 'group' or type = 'display'}questionnaire-minOccurs-greater-than-one:When the questionnaire-minOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').valueInteger &gt; 1}questionnaire-maxOccurs-greater-than-one:When the questionnaire-maxOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').valueInteger &gt; 1}minOccurs-invalid-when-repeats-false:minOccurs &gt; 1 is invalid if repeats is false {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() and extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').valueInteger &gt; 1 implies repeats = true}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}sliderStepValueDecimal-Type:Item must have type='decimal' when using extension 'ehealth-questionnaire-sliderStepValueDecimal' {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-sliderStepValueDecimal').exists() implies type = 'decimal'}copyright-type:If item extension 'ehealth-questionnaire-item-is-copyright' is set to true, item.type must be either 'group' or 'display'. {extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').exists() and extension('http://ehealth.sundhed.dk/fhir/StructureDefinition/ehealth-questionnaire-item-is-copyright').value = true implies type = 'group' or type = 'display'}questionnaire-minOccurs-greater-than-one:When the questionnaire-minOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').value &gt; 1}questionnaire-maxOccurs-greater-than-one:When the questionnaire-maxOccurs extension is present, its value must be greater than 1 {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').exists() implies extension('http://hl7.org/fhir/StructureDefinition/questionnaire-maxOccurs').value &gt; 1}minOccurs-invalid-when-repeats-false:minOccurs &gt; 1 is invalid if repeats is false {extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').exists() and extension('http://hl7.org/fhir/StructureDefinition/questionnaire-minOccurs').value &gt; 1 implies repeats = true}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1736,7 +1736,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Value for question comparison based on operator</t>
@@ -1748,7 +1748,7 @@
     <t>Allowed values to answer questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-answers|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">que-7
@@ -1883,7 +1883,7 @@
     <t>Questionnaire.item.answerValueSet</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ValueSet)
+    <t xml:space="preserve">canonical(ValueSet|4.0.1)
 </t>
   </si>
   <si>
@@ -1931,7 +1931,7 @@
   </si>
   <si>
     <t>integer
-datetimestringCodingReference(Resource)</t>
+datetimestringCodingReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Answer value</t>
@@ -1999,7 +1999,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Actual value for initializing the question</t>
